--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfarakate\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inforonline-my.sharepoint.com/personal/prashant_farakate_infor_com/Documents/Frameworks/Demo_Framework/centime-selenium-pytest-assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E80EBB-AFB0-47C6-9C04-F4A5D4F409FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{75E80EBB-AFB0-47C6-9C04-F4A5D4F409FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6972B77A-F472-4470-971A-9F51AF0B6836}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Add Address to Your Profile and Verify</t>
   </si>
   <si>
-    <t>Verify that a user can successfully add a product to the cart.</t>
-  </si>
-  <si>
     <t>Verify that a user can remove a product from the cart.</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
     <t>Verify that the system prevents saving an address with missing required fields (e.g., first name, city).</t>
   </si>
   <si>
-    <t>test_add_to_cart</t>
-  </si>
-  <si>
-    <t>test_remove_from_cart</t>
-  </si>
-  <si>
     <t>test_user_registration</t>
   </si>
   <si>
@@ -257,6 +248,36 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Verify that a user can successfully add a single product to the cart.</t>
+  </si>
+  <si>
+    <t>Verify that a user can successfully add a multiple products to the cart.</t>
+  </si>
+  <si>
+    <t>test_add_single_product</t>
+  </si>
+  <si>
+    <t>test_add_multiple_products</t>
+  </si>
+  <si>
+    <t>Select and add multiple items to cart</t>
+  </si>
+  <si>
+    <t>Verify that a user can remove multiple products from the cart.</t>
+  </si>
+  <si>
+    <t>test_delete_single_product_from_cart</t>
+  </si>
+  <si>
+    <t>test_delete_multiple_products</t>
+  </si>
+  <si>
+    <t>Remove all items from cart</t>
+  </si>
+  <si>
+    <t>test_invalid_login</t>
   </si>
 </sst>
 </file>
@@ -627,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +661,7 @@
     <col min="3" max="3" width="62.36328125" customWidth="1"/>
     <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
@@ -689,38 +710,38 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -728,38 +749,38 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -767,38 +788,38 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -806,330 +827,409 @@
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
       <c r="B14">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
       <c r="B20">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
         <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
       <c r="B26">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F29" t="s">
-        <v>71</v>
+      <c r="B29">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>302</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" t="s">
-        <v>47</v>
+      <c r="F30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F32" t="s">
-        <v>73</v>
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>303</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" t="s">
-        <v>78</v>
+      <c r="F33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>302</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F36" t="s">
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>303</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>